--- a/wwwroot/reports/automobilesofclient/carlist.xlsx
+++ b/wwwroot/reports/automobilesofclient/carlist.xlsx
@@ -30,7 +30,7 @@
     <t>Список автомобилей клиента</t>
   </si>
   <si>
-    <t>Маресев Сергей Максимович</t>
+    <t>Зубова Ирина Олеговна</t>
   </si>
   <si>
     <t>№</t>
@@ -45,13 +45,13 @@
     <t>Гос.номер</t>
   </si>
   <si>
-    <t>Mercedes-Benz</t>
-  </si>
-  <si>
-    <t>W140</t>
-  </si>
-  <si>
-    <t>M232MM33rus</t>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>P333PP33rus</t>
   </si>
 </sst>
 </file>

--- a/wwwroot/reports/automobilesofclient/carlist.xlsx
+++ b/wwwroot/reports/automobilesofclient/carlist.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Список автомобилей клиента</t>
   </si>
@@ -52,6 +52,66 @@
   </si>
   <si>
     <t>P333PP33rus</t>
+  </si>
+  <si>
+    <t>bmw</t>
+  </si>
+  <si>
+    <t>W140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Услуги для автомобиля </t>
+  </si>
+  <si>
+    <t>BMW M5 P333PP33rus</t>
+  </si>
+  <si>
+    <t>Химчистка салона</t>
+  </si>
+  <si>
+    <t>Карасёв Эдуард Фёдорович</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>24.04.2024 7:18:00</t>
+  </si>
+  <si>
+    <t>Химчистка салона автомобиля</t>
+  </si>
+  <si>
+    <t>Есин Никита Дмитриевич</t>
+  </si>
+  <si>
+    <t>16000</t>
+  </si>
+  <si>
+    <t>07.05.2024 22:13:00</t>
+  </si>
+  <si>
+    <t>Полировка кузова</t>
+  </si>
+  <si>
+    <t>27.05.2024 15:50:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоимость услуг для автомобиля </t>
+  </si>
+  <si>
+    <t>42000</t>
+  </si>
+  <si>
+    <t>bmw W140 P333PP33rus</t>
+  </si>
+  <si>
+    <t>02.05.2024 2:19:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общие затраты </t>
+  </si>
+  <si>
+    <t>52000</t>
   </si>
 </sst>
 </file>
@@ -405,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECAD1B9-E0F2-472E-8951-087C7189E30F}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -458,6 +518,134 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>2</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>1</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
